--- a/printer_box/ML_prep_Qs.xlsx
+++ b/printer_box/ML_prep_Qs.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\printer_box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5984384-1D33-4B47-B733-127C8B767B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA74051-0096-46EC-92B7-9D095BB8A1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{6DD5CD66-40C1-4380-995E-8DA71758FC30}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{6DD5CD66-40C1-4380-995E-8DA71758FC30}"/>
   </bookViews>
   <sheets>
     <sheet name="data_cleaning" sheetId="1" r:id="rId1"/>
     <sheet name="data_evaluation" sheetId="2" r:id="rId2"/>
     <sheet name="Regularization" sheetId="3" r:id="rId3"/>
     <sheet name="CV" sheetId="4" r:id="rId4"/>
-    <sheet name="Bias_Variance" sheetId="5" r:id="rId5"/>
-    <sheet name="Imbalanced_data" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Bias_Variance" sheetId="5" r:id="rId6"/>
+    <sheet name="Imbalanced_data" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -420,9 +421,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -449,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -457,11 +478,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -480,6 +540,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DEB3F5-7323-46EC-8CD6-7E61EBD6C6EF}">
   <dimension ref="F2:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -1289,7 +1358,7 @@
   <dimension ref="F2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1404,6 +1473,63 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EDA8E4-E274-44CB-9EFB-1CBC7CDFDAFC}">
+  <dimension ref="H1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="9" width="19.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:9" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E159BC-3DDB-4618-B451-8927A943161F}">
   <dimension ref="F2:H10"/>
   <sheetViews>
@@ -1522,11 +1648,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145F37CE-7543-4927-B627-13DB855BEFDE}">
   <dimension ref="F2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/printer_box/ML_prep_Qs.xlsx
+++ b/printer_box/ML_prep_Qs.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\printer_box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA74051-0096-46EC-92B7-9D095BB8A1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAE571E-8A0E-4BCA-87BF-3D3DA323BDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{6DD5CD66-40C1-4380-995E-8DA71758FC30}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{6DD5CD66-40C1-4380-995E-8DA71758FC30}"/>
   </bookViews>
   <sheets>
     <sheet name="data_cleaning" sheetId="1" r:id="rId1"/>
     <sheet name="data_evaluation" sheetId="2" r:id="rId2"/>
     <sheet name="Regularization" sheetId="3" r:id="rId3"/>
     <sheet name="CV" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
-    <sheet name="Bias_Variance" sheetId="5" r:id="rId6"/>
-    <sheet name="Imbalanced_data" sheetId="6" r:id="rId7"/>
+    <sheet name="Bias_Variance" sheetId="5" r:id="rId5"/>
+    <sheet name="Imbalanced_data" sheetId="6" r:id="rId6"/>
+    <sheet name="Hyper-parameters" sheetId="8" r:id="rId7"/>
+    <sheet name="TripActions_Specific" sheetId="9" r:id="rId8"/>
+    <sheet name="Project_spotify" sheetId="10" r:id="rId9"/>
+    <sheet name="CHip_Huyen" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="167">
   <si>
     <t>#</t>
   </si>
@@ -415,35 +418,132 @@
   </si>
   <si>
     <t>Methods like Balanced Random Forest or EasyEnsemble can be used. These involve creating balanced bootstrap samples from the data and then aggregating predictions, either by averaging (for regression) or majority voting (for classification).</t>
+  </si>
+  <si>
+    <t>The process of finding the optimal set of hyperparameters (parameters that are not directly learned within the model) for a learning algorithm to maximize its performance.</t>
+  </si>
+  <si>
+    <t>Parameters vs Hyperparameters</t>
+  </si>
+  <si>
+    <t>While parameters are learned directly from the training data (e.g., weights in a neural network), hyperparameters are external configurations set before training (e.g., learning rate, number of hidden units). They dictate the structural and behavioral aspects of the model.</t>
+  </si>
+  <si>
+    <t>Grid Search</t>
+  </si>
+  <si>
+    <t>A brute-force approach where a predefined set of hyperparameters is systematically searched. For each combination of hyperparameters, the model is trained and evaluated. The best combination that gives the highest performance is chosen. It can be computationally expensive.</t>
+  </si>
+  <si>
+    <t>Random Search</t>
+  </si>
+  <si>
+    <t>Instead of a systematic search, random combinations of hyperparameters are tried out. Surprisingly, it often works as well or even better than grid search in practice, especially when only a few hyperparameters matter most.</t>
+  </si>
+  <si>
+    <t>Bayesian Optimization</t>
+  </si>
+  <si>
+    <t>A probabilistic model-based approach that builds a probability model of the function mapping from hyperparameter values to a performance metric. It chooses the next hyperparameters in a way that balances exploration (trying unknown regions) with exploitation (refining around the currently known best regions).</t>
+  </si>
+  <si>
+    <t>Gradient-based Optimization</t>
+  </si>
+  <si>
+    <t>Some hyperparameters can be tuned using gradient-based methods, especially when using neural networks. This is often more efficient than traditional search methods but requires that the hyperparameters be continuous and differentiable w.r.t. the objective.</t>
+  </si>
+  <si>
+    <t>While training a model (especially deep learning models), monitor the performance on a validation set. If performance starts to degrade (indicative of overfitting), stop the training process. This acts as a form of hyperparameter tuning where the number of training iterations (or epochs) is determined adaptively.</t>
+  </si>
+  <si>
+    <t>Pruning</t>
+  </si>
+  <si>
+    <t>In decision-tree algorithms, "pruning" refers to the removal of branches that have little power in predicting. This can be treated as a form of hyperparameter tuning, where you're essentially tuning the depth/complexity of the tree.</t>
+  </si>
+  <si>
+    <t>Cross-validation for Tuning</t>
+  </si>
+  <si>
+    <t>Using cross-validation in the hyperparameter tuning process helps ensure that the chosen hyperparameters are robust and do not overfit to a specific subset of the data. This is typically combined with grid search or other optimization methods.</t>
+  </si>
+  <si>
+    <t>Hyperparameter tuning can be computationally expensive, especially with large datasets or complex models. There's also no guarantee that the optimal set of hyperparameters for the training data will generalize best to new data. Plus, the search space can sometimes be vast and non-convex, making the search challenging.</t>
+  </si>
+  <si>
+    <t>Model/Algorithm</t>
+  </si>
+  <si>
+    <t>Common Hyperparameters</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Regularization strength (for Ridge or Lasso), Type of regularization (L1 for Lasso, L2 for Ridge)</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Learning rate, Regularization strength, Type of regularization (L1, L2, or ElasticNet), Max iterations</t>
+  </si>
+  <si>
+    <t>Decision Trees</t>
+  </si>
+  <si>
+    <t>Maximum depth of tree, Minimum samples split, Minimum samples leaf, Maximum features (for splitting), Criterion (Gini impurity, entropy)</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Number of trees (estimators), Maximum depth of tree, Minimum samples split, Minimum samples leaf, Maximum features, Bootstrap samples</t>
+  </si>
+  <si>
+    <t>Gradient Boosting Machines (e.g., XGBoost, LightGBM)</t>
+  </si>
+  <si>
+    <t>Learning rate, Number of boosting rounds (trees), Maximum depth of tree, Min child weight, Gamma (regularization), Subsample, Column sample by tree/level</t>
+  </si>
+  <si>
+    <t>Support Vector Machines (SVM)</t>
+  </si>
+  <si>
+    <t>Kernel type (linear, polynomial, radial basis function, etc.), C (regularization parameter), Gamma (kernel coefficient), Degree (for polynomial kernel)</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbors (KNN)</t>
+  </si>
+  <si>
+    <t>Number of neighbors (k), Distance metric (Euclidean, Manhattan, etc.), Weights (uniform, distance)</t>
+  </si>
+  <si>
+    <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>Learning rate, Number of layers, Number of units in each layer, Activation functions, Dropout rate, Weight initialization method, Batch size, Epochs, Optimizer</t>
+  </si>
+  <si>
+    <t>K-Means</t>
+  </si>
+  <si>
+    <t>Number of clusters (k), Initialization method (random, k-means++), Maximum iterations, Tolerance (for convergence)</t>
+  </si>
+  <si>
+    <t>DBSCAN</t>
+  </si>
+  <si>
+    <t>Epsilon (eps: max distance between two samples), Minimum samples (min_samples: number of samples in a neighborhood)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -470,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -478,50 +578,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -540,15 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DEB3F5-7323-46EC-8CD6-7E61EBD6C6EF}">
   <dimension ref="F2:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G3:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1049,12 +1101,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7FA4A0-1115-4F02-AB9B-D111CDC8723D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F55547-C436-4BA7-901F-1A90221572F2}">
   <dimension ref="F2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+      <selection activeCell="G3" sqref="G3:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,6 +1300,244 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D5004F-F5DD-444F-8036-2F7C21871ACF}">
+  <dimension ref="F2:H10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G10" sqref="G3:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="8.7265625" style="5"/>
+    <col min="7" max="7" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.36328125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="6:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="F8" s="5">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="F9" s="5">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="F10" s="5">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08162A0B-6487-451B-8B43-D1CF85DEE128}">
+  <dimension ref="F2:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G3:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="8.7265625" style="5"/>
+    <col min="7" max="7" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.36328125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="6:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="6:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="F8" s="5">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="F9" s="5">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="F10" s="5">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E159BC-3DDB-4618-B451-8927A943161F}">
   <dimension ref="F2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1260,15 +1562,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="6:8" ht="58" x14ac:dyDescent="0.35">
@@ -1276,21 +1578,21 @@
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" ht="58" x14ac:dyDescent="0.35">
       <c r="F5" s="5">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="6:8" ht="58" x14ac:dyDescent="0.35">
@@ -1298,54 +1600,54 @@
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" ht="58" x14ac:dyDescent="0.35">
       <c r="F7" s="5">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8" ht="87" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F8" s="5">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="6:8" ht="87" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" ht="58" x14ac:dyDescent="0.35">
       <c r="F9" s="5">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8" ht="87" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" ht="58" x14ac:dyDescent="0.35">
       <c r="F10" s="5">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1353,12 +1655,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08162A0B-6487-451B-8B43-D1CF85DEE128}">
-  <dimension ref="F2:H10"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145F37CE-7543-4927-B627-13DB855BEFDE}">
+  <dimension ref="F2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G14" sqref="G3:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1384,87 +1686,113 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="6:8" ht="101.5" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F4" s="5">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="6:8" ht="58" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F5" s="5">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="6:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="F6" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="G6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="F7" s="5">
+      <c r="G8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="F9" s="5">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="F8" s="5">
+      <c r="G9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F10" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="6:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="F9" s="5">
+      <c r="G10" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F13" s="5">
         <v>7</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="F10" s="5">
+      <c r="G13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="F14" s="5">
         <v>8</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>90</v>
+      <c r="G14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1472,323 +1800,290 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EDA8E4-E274-44CB-9EFB-1CBC7CDFDAFC}">
-  <dimension ref="H1:I9"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8BFE9-386C-4399-8B36-CA54B1CB9759}">
+  <dimension ref="G2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="9" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="5"/>
+    <col min="8" max="8" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:9" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="8:9" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
+    <row r="2" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="7:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="7:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="7:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="7:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G8" s="5">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="7:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="G9" s="5">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="7:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="G10" s="5">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G11" s="5">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="G12" s="5">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G17" s="5">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G18" s="5">
+        <v>4</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G19" s="5">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G20" s="5">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="G21" s="5">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G22" s="5">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="G23" s="5">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G24" s="5">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E159BC-3DDB-4618-B451-8927A943161F}">
-  <dimension ref="F2:H10"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E30880-CEED-4831-82BD-55799238FE99}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D35584-183C-4E7F-8858-8837D3058D79}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="8.7265625" style="5"/>
-    <col min="7" max="7" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.36328125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="6:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="6:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="6:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="6:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="F8" s="5">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="6:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="F9" s="5">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="F10" s="5">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145F37CE-7543-4927-B627-13DB855BEFDE}">
-  <dimension ref="F2:H14"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="8.7265625" style="5"/>
-    <col min="7" max="7" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.36328125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="6:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="6:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="G6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="G7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="F8" s="5">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="6:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="F9" s="5">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F10" s="5">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="G11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="G12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="6:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="F13" s="5">
-        <v>7</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="6:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="F14" s="5">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/printer_box/ML_prep_Qs.xlsx
+++ b/printer_box/ML_prep_Qs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DESKTOP-QSF3VEN\Documents\everythin_new\voyager\transform_2023\printer_box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAE571E-8A0E-4BCA-87BF-3D3DA323BDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40043135-2579-4A70-B8F3-829B6FF3FEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="6" xr2:uid="{6DD5CD66-40C1-4380-995E-8DA71758FC30}"/>
   </bookViews>
@@ -1802,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C8BFE9-386C-4399-8B36-CA54B1CB9759}">
-  <dimension ref="G2:I24"/>
+  <dimension ref="G2:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2055,6 +2055,11 @@
       </c>
       <c r="I24" s="2" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="H30" s="2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
